--- a/trunk/hardware/PowerBoard_RevB/PowerBoard_RevB_BOM.xlsx
+++ b/trunk/hardware/PowerBoard_RevB/PowerBoard_RevB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="293">
   <si>
     <t>Item #</t>
   </si>
@@ -402,9 +402,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>ECX-2236</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>Rohm</t>
   </si>
   <si>
-    <t>MCR03EZPJ000</t>
-  </si>
-  <si>
     <t>RHM0.0GCT-ND</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
     <t>R22, R34, R35, R38, R39</t>
   </si>
   <si>
-    <t>MCR03EZPJ101</t>
-  </si>
-  <si>
     <t>RHM100GCT-ND</t>
   </si>
   <si>
@@ -645,9 +636,6 @@
     <t>RES 2.10K OHM 1/10W 1% 0603 SMD</t>
   </si>
   <si>
-    <t>MCR03EZPJ472</t>
-  </si>
-  <si>
     <t>RHM4.7KGCT-ND</t>
   </si>
   <si>
@@ -657,18 +645,12 @@
     <t>THERMISTOR NTC 10K OHM 5% 0603</t>
   </si>
   <si>
-    <t>MCR03EZPFX1002</t>
-  </si>
-  <si>
     <t>RHM10.0KHCT-ND</t>
   </si>
   <si>
     <t>RES 10.0K OHM 1/10W 1% 0603 SMD</t>
   </si>
   <si>
-    <t>MCR03EZPFX1003</t>
-  </si>
-  <si>
     <t>RHM100KHCT-ND</t>
   </si>
   <si>
@@ -765,15 +747,6 @@
     <t>ECS</t>
   </si>
   <si>
-    <t>ECS-160-8-36CKM</t>
-  </si>
-  <si>
-    <t>XC1552CT-ND</t>
-  </si>
-  <si>
-    <t>CRYSTAL 16.000 MHZ 8PF SMD</t>
-  </si>
-  <si>
     <t>ECS-.327-7-34B-TR</t>
   </si>
   <si>
@@ -892,6 +865,36 @@
   </si>
   <si>
     <t>Bill of Materials for 'Marmote - Power Supply Board (Rev B)'</t>
+  </si>
+  <si>
+    <t>MCR03ERTJ000</t>
+  </si>
+  <si>
+    <t>MCR03ERTJ101</t>
+  </si>
+  <si>
+    <t>MCR03ERTJ472</t>
+  </si>
+  <si>
+    <t>MCR03ERTF1002</t>
+  </si>
+  <si>
+    <t>MCR03ERTF1003</t>
+  </si>
+  <si>
+    <t>4-SMD, No Lead (DFN, LCC)</t>
+  </si>
+  <si>
+    <t>TXC CORPORATION</t>
+  </si>
+  <si>
+    <t>8Z-16.000MEEQ-T</t>
+  </si>
+  <si>
+    <t>887-1336-1-ND</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16.000 MHZ 10PF SMD</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1390,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1436,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,25 +1450,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" t="s">
         <v>134</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -1492,19 +1495,19 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -1531,19 +1534,19 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -1570,19 +1573,19 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" t="s">
         <v>151</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1609,19 +1612,19 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" t="s">
         <v>142</v>
-      </c>
-      <c r="I8" t="s">
-        <v>143</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -1648,19 +1651,19 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" t="s">
         <v>139</v>
-      </c>
-      <c r="I9" t="s">
-        <v>140</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1687,19 +1690,19 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
         <v>147</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" t="s">
-        <v>148</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -1726,19 +1729,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="2">
         <v>6</v>
@@ -1765,19 +1768,19 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="2">
         <v>4</v>
@@ -1816,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1855,7 +1858,7 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -1894,7 +1897,7 @@
         <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -1912,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
@@ -1933,7 +1936,7 @@
         <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -1960,7 +1963,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
@@ -1969,10 +1972,10 @@
         <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -1993,25 +1996,25 @@
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -2029,28 +2032,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -2077,7 +2080,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>57</v>
@@ -2089,7 +2092,7 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2107,28 +2110,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
         <v>175</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I21" t="s">
-        <v>176</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2146,28 +2149,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
         <v>178</v>
-      </c>
-      <c r="I22" t="s">
-        <v>179</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2197,7 +2200,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>34</v>
@@ -2206,7 +2209,7 @@
         <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2245,7 +2248,7 @@
         <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -2275,16 +2278,16 @@
         <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2302,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -2326,7 +2329,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -2335,19 +2338,19 @@
         <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="I27" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" t="s">
-        <v>189</v>
       </c>
       <c r="J27" s="2">
         <v>10</v>
@@ -2365,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>74</v>
@@ -2377,16 +2380,16 @@
         <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
         <v>190</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" t="s">
-        <v>192</v>
       </c>
       <c r="J28" s="2">
         <v>5</v>
@@ -2413,19 +2416,19 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" t="s">
         <v>193</v>
-      </c>
-      <c r="I29" t="s">
-        <v>195</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2452,19 +2455,19 @@
         <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" t="s">
-        <v>198</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2482,7 +2485,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2">
         <v>100</v>
@@ -2491,19 +2494,19 @@
         <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J31" s="2">
         <v>5</v>
@@ -2530,19 +2533,19 @@
         <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2560,28 +2563,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -2608,19 +2611,19 @@
         <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -2647,19 +2650,19 @@
         <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J35" s="2">
         <v>6</v>
@@ -2698,7 +2701,7 @@
         <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -2716,7 +2719,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>77</v>
@@ -2725,19 +2728,19 @@
         <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J37" s="2">
         <v>3</v>
@@ -2755,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>79</v>
@@ -2764,19 +2767,19 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J38" s="2">
         <v>11</v>
@@ -2803,19 +2806,19 @@
         <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -2836,25 +2839,25 @@
         <v>89</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -2872,16 +2875,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F41" s="2">
         <v>5122</v>
@@ -2890,10 +2893,10 @@
         <v>34</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J41" s="2">
         <v>7</v>
@@ -2911,16 +2914,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F42" s="2">
         <v>5121</v>
@@ -2929,10 +2932,10 @@
         <v>34</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2950,16 +2953,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F43" s="2">
         <v>5005</v>
@@ -2968,10 +2971,10 @@
         <v>34</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -2989,16 +2992,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F44" s="2">
         <v>5009</v>
@@ -3007,10 +3010,10 @@
         <v>34</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J44" s="2">
         <v>3</v>
@@ -3049,7 +3052,7 @@
         <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -3088,7 +3091,7 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -3127,7 +3130,7 @@
         <v>104</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -3157,16 +3160,16 @@
         <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I48" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3205,7 +3208,7 @@
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -3244,7 +3247,7 @@
         <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J50" s="2">
         <v>2</v>
@@ -3283,7 +3286,7 @@
         <v>117</v>
       </c>
       <c r="I51" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -3322,7 +3325,7 @@
         <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -3340,7 +3343,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>123</v>
@@ -3361,7 +3364,7 @@
         <v>126</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J53" s="2">
         <v>5</v>
@@ -3381,36 +3384,31 @@
       <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
-      <c r="K54">
-        <v>3.45</v>
-      </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3418,28 +3416,28 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -3457,7 +3455,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>11</v>
@@ -3466,7 +3464,7 @@
         <v>60</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F56" s="13">
         <v>7200</v>
@@ -3475,10 +3473,10 @@
         <v>34</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J56" s="13">
         <v>4</v>
@@ -3493,7 +3491,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I57" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="J57" s="2">
         <f>SUM(J4:J56)</f>
@@ -3501,7 +3499,7 @@
       </c>
       <c r="L57">
         <f>SUM(L4:L56)</f>
-        <v>88.145000000000024</v>
+        <v>84.695000000000022</v>
       </c>
     </row>
   </sheetData>
